--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -91,10 +91,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>confidence</t>
@@ -1053,25 +1053,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6437768240343348</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L17">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1079,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6388888888888888</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1183,25 +1183,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5443425076452599</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L22">
         <v>178</v>
       </c>
       <c r="M22">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="10:17">
